--- a/sample_payroll_template.xlsx
+++ b/sample_payroll_template.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,7 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,6 +499,11 @@
           <t>other_allowances</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>other_deductions</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -540,6 +546,9 @@
       <c r="J2" t="n">
         <v>1000</v>
       </c>
+      <c r="K2" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,6 +591,9 @@
       <c r="J3" t="n">
         <v>1500</v>
       </c>
+      <c r="K3" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,6 +636,9 @@
       <c r="J4" t="n">
         <v>800</v>
       </c>
+      <c r="K4" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -666,6 +681,9 @@
       <c r="J5" t="n">
         <v>1200</v>
       </c>
+      <c r="K5" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -707,6 +725,9 @@
       </c>
       <c r="J6" t="n">
         <v>500</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
